--- a/数据整理/stocks/A股/深证主板/002399-海普瑞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002399-海普瑞.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>000727</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
+          <t>融通健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.84</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>011082</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>国投瑞银医疗保健混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011082</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健混合C</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.84</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.77</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.77</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002399-海普瑞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002399-海普瑞.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002399-海普瑞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002399-海普瑞.xlsx
@@ -808,12 +808,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002399-海普瑞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002399-海普瑞.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,205 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5701</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000523</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2682</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011082</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2682</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0379</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -792,64 +652,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.14</v>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002399-海普瑞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002399-海普瑞.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.14</v>
       </c>
     </row>
@@ -515,6 +532,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -646,7 +909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002399-海普瑞.xlsx
+++ b/数据整理/stocks/A股/深证主板/002399-海普瑞.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.89</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.14</v>
       </c>
     </row>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>008778</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>嘉实中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.09</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3613</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>008779</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>嘉实中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.94</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1863</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>851088</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信灵活配置混合</t>
+          <t>海通量化成长精选一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>83.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -702,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003242</t>
+          <t>850010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合C</t>
+          <t>海通量化成长精选一年持有期混合B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>83.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -740,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003241</t>
+          <t>851099</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合A</t>
+          <t>海通量化成长精选一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>83.15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -778,6 +795,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -909,7 +1172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
